--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2139.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2139.xlsx
@@ -351,7 +351,7 @@
         <v>2.784774205155123</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>1.374816135969518</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2139.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2139.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.784774205155123</v>
+        <v>0.5787152051925659</v>
       </c>
       <c r="B1">
+        <v>1.18523895740509</v>
+      </c>
+      <c r="C1">
         <v>15</v>
       </c>
-      <c r="C1">
-        <v>1.374816135969518</v>
-      </c>
       <c r="D1">
-        <v>0.7698569254770612</v>
+        <v>2.737319946289062</v>
       </c>
       <c r="E1">
-        <v>0.5889157280421935</v>
+        <v>1.454972505569458</v>
       </c>
     </row>
   </sheetData>
